--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2352.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2352.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8986868910489642</v>
+        <v>1.004754781723022</v>
       </c>
       <c r="B1">
-        <v>1.479931848975125</v>
+        <v>2.11422324180603</v>
       </c>
       <c r="C1">
-        <v>3.277145426824137</v>
+        <v>6.672050952911377</v>
       </c>
       <c r="D1">
-        <v>2.39171137940564</v>
+        <v>1.855688333511353</v>
       </c>
       <c r="E1">
-        <v>1.209806560745317</v>
+        <v>1.370176672935486</v>
       </c>
     </row>
   </sheetData>
